--- a/tabelas/localizacao.xlsx
+++ b/tabelas/localizacao.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>231</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>232</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>233</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>234</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>235</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
         <v>236</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
         <v>237</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
         <v>238</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
         <v>239</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
         <v>240</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
         <v>241</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
         <v>242</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
         <v>243</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
         <v>244</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
         <v>245</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
         <v>246</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
         <v>247</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
         <v>248</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
         <v>249</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
         <v>250</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
         <v>251</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
         <v>252</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
         <v>253</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
         <v>166</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
         <v>167</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
         <v>168</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
         <v>169</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
         <v>170</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
         <v>171</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
         <v>289</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="n">
         <v>290</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
         <v>291</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
         <v>292</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
         <v>85</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
         <v>86</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
         <v>87</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
         <v>88</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="n">
         <v>89</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="n">
         <v>90</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
         <v>91</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
         <v>92</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
         <v>93</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
         <v>94</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
         <v>95</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
         <v>96</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
         <v>97</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
         <v>98</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
         <v>99</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="n">
         <v>100</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
         <v>101</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
         <v>102</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="n">
         <v>19</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="n">
         <v>20</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
         <v>132</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
         <v>133</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
         <v>134</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="n">
         <v>21</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="n">
         <v>22</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
         <v>103</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
         <v>104</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
         <v>105</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B65" t="n">
         <v>106</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B66" t="n">
         <v>107</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B67" t="n">
         <v>108</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n">
         <v>109</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B69" t="n">
         <v>110</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B70" t="n">
         <v>111</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B71" t="n">
         <v>112</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B72" t="n">
         <v>113</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B73" t="n">
         <v>114</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B74" t="n">
         <v>115</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B75" t="n">
         <v>116</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B76" t="n">
         <v>117</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B77" t="n">
         <v>118</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B78" t="n">
         <v>119</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B79" t="n">
         <v>120</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B80" t="n">
         <v>254</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B81" t="n">
         <v>255</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B82" t="n">
         <v>256</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B83" t="n">
         <v>257</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B84" t="n">
         <v>258</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B85" t="n">
         <v>259</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B86" t="n">
         <v>260</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B87" t="n">
         <v>261</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B88" t="n">
         <v>262</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B89" t="n">
         <v>263</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B90" t="n">
         <v>264</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B91" t="n">
         <v>265</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B92" t="n">
         <v>266</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B93" t="n">
         <v>267</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B94" t="n">
         <v>268</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B95" t="n">
         <v>269</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B96" t="n">
         <v>270</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B97" t="n">
         <v>272</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B98" t="n">
         <v>271</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="B99" t="n">
         <v>273</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B100" t="n">
         <v>274</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B101" t="n">
         <v>275</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="B102" t="n">
         <v>276</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B103" t="n">
         <v>277</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B104" t="n">
         <v>278</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="B105" t="n">
         <v>279</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B106" t="n">
         <v>280</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B107" t="n">
         <v>281</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B108" t="n">
         <v>282</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B109" t="n">
         <v>283</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B110" t="n">
         <v>284</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B111" t="n">
         <v>293</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B112" t="n">
         <v>294</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B113" t="n">
         <v>295</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B114" t="n">
         <v>296</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B115" t="n">
         <v>135</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B116" t="n">
         <v>136</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="B117" t="n">
         <v>137</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B118" t="n">
         <v>138</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="B119" t="n">
         <v>285</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B120" t="n">
         <v>286</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B121" t="n">
         <v>287</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B122" t="n">
         <v>288</v>
